--- a/ope.ed.gov/2008/criminal-offenses-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2008.xlsx
+++ b/ope.ed.gov/2008/criminal-offenses-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2008.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Criminal_Offenses_On_campus_Stu" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="criminal-offenses-on-campus-stu" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - On-campus Student Housing Facilities</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -439,52 +436,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2008.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>842.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>3.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -492,19 +531,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231420.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
-        <v>842.0</v>
+        <v>120.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -513,19 +552,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J3">
         <v>0.0</v>
       </c>
       <c s="1" r="K3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M3">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N3">
         <v>0.0</v>
@@ -539,19 +578,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B4">
-        <v>366793.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
-        <v>120.0</v>
+        <v>736.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -586,19 +625,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>736.0</v>
+        <v>1514.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -619,7 +658,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M5">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c s="1" r="N5">
         <v>0.0</v>
@@ -633,19 +672,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231581.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
-        <v>1514.0</v>
+        <v>4904.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -654,7 +693,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I6">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J6">
         <v>0.0</v>
@@ -666,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M6">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N6">
         <v>0.0</v>
@@ -680,19 +719,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>4904.0</v>
+        <v>7892.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -713,7 +752,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M7">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="N7">
         <v>0.0</v>
@@ -727,19 +766,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231624.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
-        <v>7892.0</v>
+        <v>1387.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -748,19 +787,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I8">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J8">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K8">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L8">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M8">
         <v>2.0</v>
-      </c>
-      <c s="1" r="J8">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K8">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L8">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M8">
-        <v>14.0</v>
       </c>
       <c s="1" r="N8">
         <v>0.0</v>
@@ -774,19 +813,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B9">
-        <v>232043.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
-        <v>1387.0</v>
+        <v>1015.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -795,7 +834,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I9">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J9">
         <v>0.0</v>
@@ -807,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M9">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="N9">
         <v>0.0</v>
@@ -821,19 +860,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B10">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
-        <v>1015.0</v>
+        <v>1397.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -842,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J10">
         <v>0.0</v>
@@ -854,7 +893,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M10">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N10">
         <v>0.0</v>
@@ -868,19 +907,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B11">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
-        <v>1397.0</v>
+        <v>30613.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -889,7 +928,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I11">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="J11">
         <v>0.0</v>
@@ -901,7 +940,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M11">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="N11">
         <v>0.0</v>
@@ -915,19 +954,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B12">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
-        <v>30613.0</v>
+        <v>1120.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -936,7 +975,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I12">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J12">
         <v>0.0</v>
@@ -948,7 +987,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M12">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="N12">
         <v>0.0</v>
@@ -962,19 +1001,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
-        <v>1120.0</v>
+        <v>5427.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -983,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I13">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J13">
         <v>0.0</v>
@@ -992,10 +1031,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L13">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="M13">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="N13">
         <v>0.0</v>
@@ -1009,19 +1048,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B14">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
-        <v>5427.0</v>
+        <v>1058.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1039,10 +1078,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L14">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M14">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N14">
         <v>0.0</v>
@@ -1056,19 +1095,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232308.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>1058.0</v>
+        <v>18454.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1089,7 +1128,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M15">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="N15">
         <v>0.0</v>
@@ -1106,13 +1145,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
         <v>18454.0</v>
@@ -1136,7 +1175,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M16">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N16">
         <v>0.0</v>
@@ -1153,13 +1192,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
         <v>18454.0</v>
@@ -1200,13 +1239,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
         <v>18454.0</v>
@@ -1244,19 +1283,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B19">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>18454.0</v>
+        <v>995.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1291,19 +1330,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B20">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>995.0</v>
+        <v>33604.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1324,7 +1363,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M20">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N20">
         <v>0.0</v>
@@ -1338,19 +1377,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
-        <v>33604.0</v>
+        <v>4727.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1359,7 +1398,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I21">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J21">
         <v>0.0</v>
@@ -1371,7 +1410,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M21">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="N21">
         <v>0.0</v>
@@ -1385,19 +1424,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>4727.0</v>
+        <v>2572.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1406,7 +1445,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I22">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="J22">
         <v>0.0</v>
@@ -1415,10 +1454,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L22">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M22">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="N22">
         <v>0.0</v>
@@ -1432,19 +1471,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232609.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>2572.0</v>
+        <v>1738.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1453,7 +1492,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I23">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J23">
         <v>0.0</v>
@@ -1462,10 +1501,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L23">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M23">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N23">
         <v>0.0</v>
@@ -1479,19 +1518,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>1738.0</v>
+        <v>3548.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1512,7 +1551,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M24">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N24">
         <v>0.0</v>
@@ -1526,19 +1565,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232706.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>3548.0</v>
+        <v>6325.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1547,7 +1586,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I25">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J25">
         <v>0.0</v>
@@ -1559,13 +1598,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M25">
-        <v>1.0</v>
+        <v>39.0</v>
       </c>
       <c s="1" r="N25">
         <v>0.0</v>
       </c>
       <c s="1" r="O25">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
@@ -1573,19 +1612,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232937.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>6325.0</v>
+        <v>23086.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1603,16 +1642,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L26">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M26">
-        <v>39.0</v>
+        <v>27.0</v>
       </c>
       <c s="1" r="N26">
         <v>0.0</v>
       </c>
       <c s="1" r="O26">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -1620,19 +1659,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232982.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>23086.0</v>
+        <v>9157.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -1641,7 +1680,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I27">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="J27">
         <v>0.0</v>
@@ -1650,16 +1689,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M27">
-        <v>27.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="N27">
         <v>0.0</v>
       </c>
       <c s="1" r="O27">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
@@ -1667,19 +1706,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B28">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>9157.0</v>
+        <v>568.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -1688,7 +1727,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I28">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J28">
         <v>0.0</v>
@@ -1697,16 +1736,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M28">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N28">
         <v>0.0</v>
       </c>
       <c s="1" r="O28">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -1714,19 +1753,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B29">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>568.0</v>
+        <v>1201.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1735,7 +1774,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I29">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="J29">
         <v>0.0</v>
@@ -1744,16 +1783,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L29">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M29">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c s="1" r="N29">
         <v>0.0</v>
       </c>
       <c s="1" r="O29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1761,19 +1800,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233295.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>1201.0</v>
+        <v>4278.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1782,7 +1821,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I30">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J30">
         <v>0.0</v>
@@ -1791,10 +1830,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L30">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M30">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N30">
         <v>0.0</v>
@@ -1808,19 +1847,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>4278.0</v>
+        <v>1634.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -1835,13 +1874,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K31">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L31">
         <v>0.0</v>
       </c>
       <c s="1" r="M31">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N31">
         <v>0.0</v>
@@ -1855,19 +1894,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B32">
-        <v>233338.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>1634.0</v>
+        <v>2021.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -1882,13 +1921,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K32">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L32">
         <v>0.0</v>
       </c>
       <c s="1" r="M32">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="N32">
         <v>0.0</v>
@@ -1902,19 +1941,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233426.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>2021.0</v>
+        <v>644.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -1932,10 +1971,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L33">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M33">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N33">
         <v>0.0</v>
@@ -1949,19 +1988,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233499.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>644.0</v>
+        <v>3511.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -1979,10 +2018,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L34">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M34">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N34">
         <v>0.0</v>
@@ -1996,19 +2035,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B35">
-        <v>233541.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>3511.0</v>
+        <v>686.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2029,7 +2068,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M35">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="N35">
         <v>0.0</v>
@@ -2043,19 +2082,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B36">
-        <v>233611.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>686.0</v>
+        <v>828.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2076,7 +2115,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M36">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N36">
         <v>0.0</v>
@@ -2090,19 +2129,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B37">
-        <v>233718.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>828.0</v>
+        <v>1964.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2123,7 +2162,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M37">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N37">
         <v>0.0</v>
@@ -2137,19 +2176,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B38">
-        <v>233897.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>1964.0</v>
+        <v>344.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2184,19 +2223,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B39">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>344.0</v>
+        <v>5084.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2217,13 +2256,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N39">
         <v>0.0</v>
       </c>
       <c s="1" r="O39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -2231,19 +2270,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B40">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>5084.0</v>
+        <v>4249.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2252,7 +2291,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I40">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J40">
         <v>0.0</v>
@@ -2264,7 +2303,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M40">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c s="1" r="N40">
         <v>0.0</v>
@@ -2278,19 +2317,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B41">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
-        <v>4249.0</v>
+        <v>24541.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -2299,7 +2338,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I41">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J41">
         <v>0.0</v>
@@ -2311,13 +2350,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M41">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c s="1" r="N41">
         <v>0.0</v>
       </c>
       <c s="1" r="O41">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -2325,19 +2364,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B42">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
-        <v>24541.0</v>
+        <v>32044.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -2346,7 +2385,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I42">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J42">
         <v>0.0</v>
@@ -2358,7 +2397,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M42">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="N42">
         <v>0.0</v>
@@ -2375,13 +2414,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
         <v>32044.0</v>
@@ -2393,7 +2432,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I43">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J43">
         <v>0.0</v>
@@ -2405,7 +2444,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M43">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N43">
         <v>0.0</v>
@@ -2419,19 +2458,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B44">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
-        <v>32044.0</v>
+        <v>542.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -2466,19 +2505,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B45">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>542.0</v>
+        <v>1428.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2487,7 +2526,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I45">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J45">
         <v>0.0</v>
@@ -2496,10 +2535,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L45">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M45">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="N45">
         <v>0.0</v>
@@ -2513,19 +2552,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B46">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>1428.0</v>
+        <v>30739.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -2534,7 +2573,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I46">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J46">
         <v>0.0</v>
@@ -2543,16 +2582,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L46">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="M46">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c s="1" r="N46">
         <v>0.0</v>
       </c>
       <c s="1" r="O46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -2563,13 +2602,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
         <v>30739.0</v>
@@ -2581,7 +2620,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I47">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J47">
         <v>0.0</v>
@@ -2590,16 +2629,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L47">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M47">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N47">
         <v>0.0</v>
       </c>
       <c s="1" r="O47">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -2607,19 +2646,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B48">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
-        <v>30739.0</v>
+        <v>5042.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -2628,7 +2667,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I48">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J48">
         <v>0.0</v>
@@ -2637,10 +2676,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L48">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M48">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N48">
         <v>0.0</v>
@@ -2654,19 +2693,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B49">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
-        <v>5042.0</v>
+        <v>1501.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -2675,7 +2714,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J49">
         <v>0.0</v>
@@ -2684,10 +2723,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L49">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M49">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="N49">
         <v>0.0</v>
@@ -2701,19 +2740,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B50">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>1501.0</v>
+        <v>267.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -2734,7 +2773,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M50">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N50">
         <v>0.0</v>
@@ -2748,19 +2787,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B51">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>267.0</v>
+        <v>1381.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2769,7 +2808,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I51">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="J51">
         <v>0.0</v>
@@ -2781,7 +2820,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M51">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N51">
         <v>0.0</v>
@@ -2795,19 +2834,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B52">
-        <v>234173.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>1381.0</v>
+        <v>2155.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2816,7 +2855,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I52">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J52">
         <v>0.0</v>
@@ -2828,7 +2867,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M52">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N52">
         <v>0.0</v>
@@ -2842,19 +2881,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B53">
-        <v>234207.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>2155.0</v>
+        <v>237.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2875,59 +2914,12 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M53">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N53">
         <v>0.0</v>
       </c>
       <c s="1" r="O53">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c s="1" r="A54">
-        <v>2008.0</v>
-      </c>
-      <c s="1" r="B54">
-        <v>234359.0</v>
-      </c>
-      <c t="s" s="1" r="C54">
-        <v>118</v>
-      </c>
-      <c s="1" r="D54">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E54">
-        <v>119</v>
-      </c>
-      <c s="1" r="F54">
-        <v>237.0</v>
-      </c>
-      <c s="1" r="G54">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H54">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I54">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J54">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K54">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L54">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M54">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N54">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O54">
         <v>0.0</v>
       </c>
     </row>
